--- a/doc/Lists.xlsx
+++ b/doc/Lists.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\workspaces\android\LearnGLES\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{374655E9-CB8B-47A1-89C6-AB793784E65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCC433C-8E6D-4B35-A974-BADDA36593C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7164" yWindow="2316" windowWidth="23040" windowHeight="12204" xr2:uid="{8CB279E1-FD09-4340-BB07-45B7A6D66103}"/>
+    <workbookView xWindow="4572" yWindow="1932" windowWidth="23040" windowHeight="12204" activeTab="5" xr2:uid="{8CB279E1-FD09-4340-BB07-45B7A6D66103}"/>
   </bookViews>
   <sheets>
     <sheet name="1.getting_started" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t xml:space="preserve">hello_window </t>
   </si>
@@ -125,12 +125,6 @@
   </si>
   <si>
     <t xml:space="preserve">camera_circle </t>
-  </si>
-  <si>
-    <t xml:space="preserve">camera_keyboard_dt </t>
-  </si>
-  <si>
-    <t xml:space="preserve">camera_mouse_zoom </t>
   </si>
   <si>
     <t xml:space="preserve">camera_class </t>
@@ -715,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7481AFA2-2F7A-4782-94BF-C73589D8F6B9}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -955,7 +949,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -963,7 +957,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -971,22 +965,6 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1001,7 +979,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1011,7 +989,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="b">
         <v>1</v>
@@ -1019,7 +997,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="b">
         <v>1</v>
@@ -1027,7 +1005,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1" t="b">
         <v>1</v>
@@ -1035,7 +1013,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="b">
         <v>1</v>
@@ -1043,7 +1021,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="b">
         <v>1</v>
@@ -1051,39 +1029,39 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" s="1" t="b">
         <v>1</v>
@@ -1091,7 +1069,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1" t="b">
         <v>1</v>
@@ -1099,7 +1077,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="b">
         <v>1</v>
@@ -1107,7 +1085,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" s="1" t="b">
         <v>1</v>
@@ -1115,10 +1093,10 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1141,7 +1119,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="b">
         <v>1</v>
@@ -1157,7 +1135,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1167,7 +1145,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="b">
         <v>1</v>
@@ -1175,7 +1153,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="b">
         <v>0</v>
@@ -1183,15 +1161,15 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" s="1" t="b">
         <v>1</v>
@@ -1199,7 +1177,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1" t="b">
         <v>1</v>
@@ -1207,7 +1185,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1" t="b">
         <v>1</v>
@@ -1215,7 +1193,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B7" s="1" t="b">
         <v>1</v>
@@ -1223,7 +1201,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8" s="1" t="b">
         <v>0</v>
@@ -1231,7 +1209,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>0</v>
@@ -1239,7 +1217,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B10" s="1" t="b">
         <v>0</v>
@@ -1247,7 +1225,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B11" s="1" t="b">
         <v>1</v>
@@ -1255,23 +1233,23 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B14" s="1" t="b">
         <v>1</v>
@@ -1279,7 +1257,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B15" s="1" t="b">
         <v>0</v>
@@ -1287,7 +1265,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B16" s="1" t="b">
         <v>0</v>
@@ -1295,7 +1273,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B17" s="1" t="b">
         <v>1</v>
@@ -1303,7 +1281,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B18" s="1" t="b">
         <v>0</v>
@@ -1319,7 +1297,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1329,7 +1307,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="b">
         <v>1</v>
@@ -1337,7 +1315,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="1" t="b">
         <v>1</v>
@@ -1345,7 +1323,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B3" s="1" t="b">
         <v>1</v>
@@ -1353,7 +1331,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B4" s="1" t="b">
         <v>1</v>
@@ -1361,7 +1339,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B5" s="1" t="b">
         <v>1</v>
@@ -1369,7 +1347,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" s="1" t="b">
         <v>1</v>
@@ -1377,7 +1355,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1" t="b">
         <v>0</v>
@@ -1385,7 +1363,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" s="1" t="b">
         <v>0</v>
@@ -1393,15 +1371,15 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B9" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B10" s="1" t="b">
         <v>1</v>
@@ -1409,7 +1387,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B11" s="1" t="b">
         <v>1</v>
@@ -1417,23 +1395,23 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B12" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B13" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B14" s="1" t="b">
         <v>0</v>
@@ -1441,7 +1419,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B15" s="1" t="b">
         <v>0</v>
@@ -1449,7 +1427,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="1" t="b">
         <v>0</v>
@@ -1457,7 +1435,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B17" s="1" t="b">
         <v>0</v>
@@ -1465,10 +1443,10 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B18" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1480,8 +1458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5C8032-F143-496F-BD17-AA7458BF74FA}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1491,15 +1469,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B2" s="1" t="b">
         <v>0</v>
@@ -1507,7 +1485,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" s="1" t="b">
         <v>0</v>
@@ -1515,7 +1493,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B4" s="1" t="b">
         <v>0</v>
@@ -1523,7 +1501,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B5" s="1" t="b">
         <v>0</v>
@@ -1531,7 +1509,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="b">
         <v>0</v>
